--- a/Banco Central/10/Encuesta de Operadores Financieros (EOF) 2021 - Diaria.xlsx
+++ b/Banco Central/10/Encuesta de Operadores Financieros (EOF) 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,81 @@
   </si>
   <si>
     <t>09-07-2021</t>
+  </si>
+  <si>
+    <t>10-07-2021</t>
+  </si>
+  <si>
+    <t>11-07-2021</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>16-07-2021</t>
+  </si>
+  <si>
+    <t>17-07-2021</t>
+  </si>
+  <si>
+    <t>18-07-2021</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
+  </si>
+  <si>
+    <t>20-07-2021</t>
+  </si>
+  <si>
+    <t>21-07-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>24-07-2021</t>
+  </si>
+  <si>
+    <t>25-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2211,6 +2286,173 @@
         <v>747.5</v>
       </c>
     </row>
+    <row r="171" spans="1:15">
+      <c r="A171" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195">
+        <v>0.4</v>
+      </c>
+      <c r="C195">
+        <v>0.3</v>
+      </c>
+      <c r="D195">
+        <v>0.4</v>
+      </c>
+      <c r="E195">
+        <v>3.4</v>
+      </c>
+      <c r="F195">
+        <v>3.2</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1.25</v>
+      </c>
+      <c r="I195">
+        <v>1.5</v>
+      </c>
+      <c r="J195">
+        <v>1.5</v>
+      </c>
+      <c r="K195">
+        <v>1.75</v>
+      </c>
+      <c r="L195">
+        <v>2.25</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>755</v>
+      </c>
+      <c r="O195">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
